--- a/Hx.BackAdmin/App_Data/金融日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/金融日报表模板.xlsx
@@ -1309,27 +1309,66 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1337,45 +1376,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1692,16 +1692,16 @@
   <dimension ref="A1:AT53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AG19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AQ25" sqref="AQ25"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" hidden="1" customWidth="1"/>
     <col min="3" max="11" width="5.625" customWidth="1"/>
     <col min="12" max="29" width="5.625" hidden="1" customWidth="1"/>
     <col min="30" max="33" width="5.625" customWidth="1"/>
@@ -1713,80 +1713,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="79"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="67"/>
     </row>
     <row r="2" spans="1:46" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="81"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="69"/>
     </row>
     <row r="3" spans="1:46" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="55" t="s">
@@ -1900,7 +1900,7 @@
       <c r="A4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="73" t="s">
         <v>63</v>
       </c>
       <c r="C4" s="62"/>
@@ -1944,7 +1944,7 @@
       <c r="A5" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="63"/>
       <c r="D5" s="63"/>
       <c r="E5" s="63"/>
@@ -1986,7 +1986,7 @@
       <c r="A6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="63"/>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
@@ -2028,7 +2028,7 @@
       <c r="A7" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="63"/>
       <c r="D7" s="63"/>
       <c r="E7" s="63"/>
@@ -2074,7 +2074,7 @@
       <c r="A8" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="63"/>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -2116,23 +2116,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AK8" s="6"/>
-      <c r="AL8" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="72" t="s">
+      <c r="AL8" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="73" t="s">
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="72" t="s">
+      <c r="AQ8" s="86"/>
+      <c r="AR8" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="65" t="s">
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="82" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       <c r="A9" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="83"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
@@ -2205,13 +2205,13 @@
       <c r="AS9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AT9" s="66"/>
+      <c r="AT9" s="83"/>
     </row>
     <row r="10" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="78" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="62"/>
@@ -2292,7 +2292,7 @@
       <c r="A11" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="63"/>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
@@ -2371,7 +2371,7 @@
       <c r="A12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="63"/>
       <c r="D12" s="63"/>
       <c r="E12" s="63"/>
@@ -2450,7 +2450,7 @@
       <c r="A13" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="63"/>
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
@@ -2529,7 +2529,7 @@
       <c r="A14" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="76"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="63"/>
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
@@ -2608,7 +2608,7 @@
       <c r="A15" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="76"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="63"/>
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
@@ -2687,7 +2687,7 @@
       <c r="A16" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="76"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="63"/>
       <c r="D16" s="63"/>
       <c r="E16" s="63"/>
@@ -2766,7 +2766,7 @@
       <c r="A17" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="76"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="63"/>
       <c r="D17" s="63"/>
       <c r="E17" s="63"/>
@@ -2845,7 +2845,7 @@
       <c r="A18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="77"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
       <c r="E18" s="63"/>
@@ -2924,7 +2924,7 @@
       <c r="A19" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="78" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="62"/>
@@ -2995,7 +2995,7 @@
       <c r="A20" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="76"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="63"/>
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
@@ -3033,18 +3033,18 @@
       </c>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="4"/>
-      <c r="AL20" s="67" t="s">
+      <c r="AL20" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="69"/>
+      <c r="AM20" s="71"/>
+      <c r="AN20" s="72"/>
       <c r="AO20" s="60"/>
     </row>
     <row r="21" spans="1:46" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="76"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="63"/>
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
@@ -3099,7 +3099,7 @@
       <c r="A22" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="76"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="63"/>
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
@@ -3157,7 +3157,7 @@
       <c r="A23" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="63"/>
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
@@ -3194,11 +3194,11 @@
         <v>0</v>
       </c>
       <c r="AI23" s="3"/>
-      <c r="AL23" s="67" t="s">
+      <c r="AL23" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="AM23" s="68"/>
-      <c r="AN23" s="69"/>
+      <c r="AM23" s="71"/>
+      <c r="AN23" s="72"/>
       <c r="AO23" s="60">
         <f>SUMIF($A:$A,"传统保险总数",$AH:$AH)</f>
         <v>0</v>
@@ -3208,7 +3208,7 @@
       <c r="A24" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="76"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="63"/>
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
@@ -3245,11 +3245,11 @@
         <v>0</v>
       </c>
       <c r="AI24" s="3"/>
-      <c r="AL24" s="67" t="s">
+      <c r="AL24" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="AM24" s="68"/>
-      <c r="AN24" s="69"/>
+      <c r="AM24" s="71"/>
+      <c r="AN24" s="72"/>
       <c r="AO24" s="60">
         <f>SUMIF($A:$A,"按揭续保数",$AH:$AH)</f>
         <v>0</v>
@@ -3259,7 +3259,7 @@
       <c r="A25" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="76"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="63"/>
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
@@ -3296,11 +3296,11 @@
         <v>0</v>
       </c>
       <c r="AI25" s="3"/>
-      <c r="AL25" s="67" t="s">
+      <c r="AL25" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="AM25" s="68"/>
-      <c r="AN25" s="69"/>
+      <c r="AM25" s="71"/>
+      <c r="AN25" s="72"/>
       <c r="AO25" s="60">
         <f>SUMIF($A:$A,"电销保险总数",$AH:$AH)</f>
         <v>0</v>
@@ -3310,7 +3310,7 @@
       <c r="A26" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="76"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="63"/>
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
@@ -3347,12 +3347,12 @@
         <v>0</v>
       </c>
       <c r="AI26" s="3"/>
-      <c r="AL26" s="67" t="s">
+      <c r="AL26" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="AM26" s="68"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="87" t="e">
+      <c r="AM26" s="71"/>
+      <c r="AN26" s="72"/>
+      <c r="AO26" s="65" t="e">
         <f>(AO23)/AO22</f>
         <v>#DIV/0!</v>
       </c>
@@ -3361,7 +3361,7 @@
       <c r="A27" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="77"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="63"/>
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
@@ -3406,7 +3406,7 @@
       <c r="A28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="78" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="62"/>
@@ -3450,7 +3450,7 @@
       <c r="A29" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="76"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="63"/>
       <c r="D29" s="63"/>
       <c r="E29" s="63"/>
@@ -3492,7 +3492,7 @@
       <c r="A30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="76"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="63"/>
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
@@ -3534,7 +3534,7 @@
       <c r="A31" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="76"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="63"/>
       <c r="D31" s="63"/>
       <c r="E31" s="63"/>
@@ -3576,7 +3576,7 @@
       <c r="A32" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="76"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="63"/>
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
@@ -3618,7 +3618,7 @@
       <c r="A33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="76"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="63"/>
       <c r="D33" s="63"/>
       <c r="E33" s="63"/>
@@ -3660,7 +3660,7 @@
       <c r="A34" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="76"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="63"/>
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
@@ -3702,7 +3702,7 @@
       <c r="A35" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="76"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="63"/>
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
@@ -3744,7 +3744,7 @@
       <c r="A36" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="76"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="63"/>
       <c r="D36" s="63"/>
       <c r="E36" s="63"/>
@@ -3786,7 +3786,7 @@
       <c r="A37" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="76" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="62"/>
@@ -3830,7 +3830,7 @@
       <c r="A38" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="85"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="63"/>
       <c r="D38" s="63"/>
       <c r="E38" s="63"/>
@@ -3872,7 +3872,7 @@
       <c r="A39" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="73" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="63"/>
@@ -3916,7 +3916,7 @@
       <c r="A40" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="71"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="63"/>
       <c r="D40" s="63"/>
       <c r="E40" s="63"/>
@@ -3958,7 +3958,7 @@
       <c r="A41" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="76" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="62"/>
@@ -4002,7 +4002,7 @@
       <c r="A42" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="86"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
       <c r="E42" s="64"/>
@@ -4044,7 +4044,7 @@
       <c r="A43" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="86"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="63"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
@@ -4086,7 +4086,7 @@
       <c r="A44" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="84" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="62"/>
@@ -4130,7 +4130,7 @@
       <c r="A45" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="71"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="63"/>
       <c r="D45" s="63"/>
       <c r="E45" s="63"/>
@@ -4172,7 +4172,7 @@
       <c r="A46" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="71"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="63"/>
       <c r="D46" s="63"/>
       <c r="E46" s="63"/>
@@ -4214,7 +4214,7 @@
       <c r="A47" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="71"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="63"/>
       <c r="D47" s="63"/>
       <c r="E47" s="63"/>
@@ -4256,7 +4256,7 @@
       <c r="A48" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="76" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="62"/>
@@ -4300,7 +4300,7 @@
       <c r="A49" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="85"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="63"/>
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
@@ -4376,16 +4376,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:AG2"/>
-    <mergeCell ref="AH1:AI2"/>
-    <mergeCell ref="AL25:AN25"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B28:B36"/>
     <mergeCell ref="AT8:AT9"/>
     <mergeCell ref="AL24:AN24"/>
     <mergeCell ref="AL26:AN26"/>
@@ -4397,6 +4387,16 @@
     <mergeCell ref="AN8:AO8"/>
     <mergeCell ref="AP8:AQ8"/>
     <mergeCell ref="B10:B18"/>
+    <mergeCell ref="A1:AG2"/>
+    <mergeCell ref="AH1:AI2"/>
+    <mergeCell ref="AL25:AN25"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B28:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AO10:AO18 AQ10:AQ18 AS10:AS18">
